--- a/CodeSystem-data-access-roles.xlsx
+++ b/CodeSystem-data-access-roles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-03T17:12:52+00:00</t>
+    <t>2023-07-04T21:22:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-data-access-roles.xlsx
+++ b/CodeSystem-data-access-roles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-04T21:22:21+00:00</t>
+    <t>2023-07-04T21:22:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
